--- a/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_cfim-50_results.xlsx
+++ b/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_cfim-50_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F3825-BAB0-4927-8ECE-E557C96BF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15188B0E-9C32-4BF1-BEC8-50E2AA72EA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="7" xr2:uid="{D01610EA-B1EA-473E-BE3D-0176DEBCEDC3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{37886EAD-10B7-41FD-8EE5-1406FFDC30BF}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF7CB29-D2D1-40B4-A1A3-0A406D20BE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA78EA53-DE0C-4327-8BED-B957E5EEF8C8}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1339,16 +1339,16 @@
         <v>66.400000000000006</v>
       </c>
       <c r="D35">
-        <v>22.48780794374867</v>
+        <v>2.3845454553868214E-14</v>
       </c>
       <c r="E35">
         <v>241.4</v>
       </c>
       <c r="F35">
-        <v>81.773847068176977</v>
+        <v>8.671074383224803E-14</v>
       </c>
       <c r="G35">
-        <v>-159.62615293182301</v>
+        <v>-241.39999999999992</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1425,16 +1425,16 @@
         <v>1471.1000000000006</v>
       </c>
       <c r="D39">
-        <v>758.5234742696523</v>
+        <v>736.03566632590366</v>
       </c>
       <c r="E39">
         <v>806.59999999999991</v>
       </c>
       <c r="F39">
-        <v>307.41357821014145</v>
+        <v>225.63973114196455</v>
       </c>
       <c r="G39">
-        <v>-499.18642178985851</v>
+        <v>-580.96026885803553</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1791,7 +1791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A143272B-A276-4377-850A-DAB1EE7EAD5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAFE9A4-A17A-4261-BD01-630DDB3DAA35}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2233,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9EF4DF-C977-43B2-95A5-BC8FA10E3E6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5262BFE6-EA29-4B60-9FAA-C6747D7DD5EC}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2660,7 +2660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50B8D2E-34CE-466A-8CC8-E535C21D17B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BE2DEA-332A-45D1-8991-D0E639381FE8}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2790,13 +2790,13 @@
         <v>2461.5000000000014</v>
       </c>
       <c r="E6">
-        <v>977.10608874683339</v>
+        <v>954.61828080308487</v>
       </c>
       <c r="F6">
-        <v>-1180.6794254588494</v>
+        <v>-1203.167233402598</v>
       </c>
       <c r="G6">
-        <v>45.282818070382802</v>
+        <v>44.240647391429725</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2813,13 +2813,13 @@
         <v>92.90000000000002</v>
       </c>
       <c r="E7">
-        <v>34.511593882893038</v>
+        <v>33.530307718074909</v>
       </c>
       <c r="F7">
-        <v>-35.61659699345752</v>
+        <v>-36.59788315827565</v>
       </c>
       <c r="G7">
-        <v>49.212154843326267</v>
+        <v>47.812879954646583</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2836,13 +2836,13 @@
         <v>60.9</v>
       </c>
       <c r="E8">
-        <v>12.349687745364669</v>
+        <v>12.186140051228314</v>
       </c>
       <c r="F8">
-        <v>-52.383877680805803</v>
+        <v>-52.547425374942158</v>
       </c>
       <c r="G8">
-        <v>19.077719053571457</v>
+        <v>18.825071616249495</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2859,13 +2859,13 @@
         <v>299.09999999999997</v>
       </c>
       <c r="E9">
-        <v>175.77970840606159</v>
+        <v>171.50702489674933</v>
       </c>
       <c r="F9">
-        <v>-147.88811872479076</v>
+        <v>-152.16080223410302</v>
       </c>
       <c r="G9">
-        <v>54.30867502780788</v>
+        <v>52.988592167800633</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2967,7 +2967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E601C884-934B-49F0-9CE6-6709AA3D7CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885A4F9F-C06A-462B-BAC3-CB3897F259AF}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3217,13 +3217,13 @@
         <v>241.4</v>
       </c>
       <c r="D15">
-        <v>81.773847068176977</v>
+        <v>8.671074383224803E-14</v>
       </c>
       <c r="E15">
-        <v>33.874833085408852</v>
+        <v>3.5919943592480544E-14</v>
       </c>
       <c r="F15">
-        <v>-159.62615293182301</v>
+        <v>-241.39999999999992</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3543,7 +3543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B315567-B4A5-46F3-8400-DA322623EC96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560E4AF6-2534-4DAD-83C6-F88917E20D49}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3806,7 +3806,7 @@
         <v>2341.8680000000004</v>
       </c>
       <c r="S11">
-        <v>166.34422404562778</v>
+        <v>1.7638685125293154E-13</v>
       </c>
       <c r="U11">
         <v>35.099999999999994</v>
@@ -5194,7 +5194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8DF0B4-25B6-49A4-BD40-CEA3960151A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D7C1D6-1B96-40DD-8B6E-8F31FC0BF7C0}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5333,7 +5333,7 @@
         <v>0.51521095999999889</v>
       </c>
       <c r="R3">
-        <v>0.1355705425971864</v>
+        <v>1.4375528377113891E-16</v>
       </c>
       <c r="T3">
         <v>9.3716999999999828E-2</v>
@@ -5351,7 +5351,7 @@
         <v>3.7723597020824294E-3</v>
       </c>
       <c r="AF3">
-        <v>0.95992186416220349</v>
+        <v>0.82435132156501723</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -5488,7 +5488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7837B7-7FF7-435B-A85C-B47BF8DADC45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D20AD0-4E01-4031-8C42-243FD0CE0570}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5658,7 +5658,7 @@
         <v>177981.96799999996</v>
       </c>
       <c r="S5">
-        <v>45744.661612547643</v>
+        <v>4.8506384094556175E-11</v>
       </c>
       <c r="U5">
         <v>5019.3</v>
@@ -5670,7 +5670,7 @@
         <v>2680.6160959999825</v>
       </c>
       <c r="Z5">
-        <v>236530.54570854758</v>
+        <v>190785.88409599999</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -5684,7 +5684,7 @@
         <v>210768.11999999997</v>
       </c>
       <c r="S6">
-        <v>27446.796967528586</v>
+        <v>2.9103830456733704E-11</v>
       </c>
       <c r="U6">
         <v>1719.9</v>
@@ -5696,7 +5696,7 @@
         <v>4188.4626499999722</v>
       </c>
       <c r="Z6">
-        <v>246211.27961752852</v>
+        <v>218764.48264999996</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -5710,7 +5710,7 @@
         <v>224819.32799999995</v>
       </c>
       <c r="S7">
-        <v>43748.530924000108</v>
+        <v>4.6389741879520996E-11</v>
       </c>
       <c r="U7">
         <v>2492.1</v>
@@ -5722,7 +5722,7 @@
         <v>2680.6160959999825</v>
       </c>
       <c r="Z7">
-        <v>275132.57501999999</v>
+        <v>231384.044096</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
